--- a/pred_ohlcv/54/2019-11-13 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-13 LBA ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>25.9</v>
       </c>
       <c r="F2" t="n">
-        <v>4000</v>
+        <v>9775.2271</v>
       </c>
       <c r="G2" t="n">
-        <v>24.55166666666667</v>
+        <v>24.51333333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>25.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1102.8429</v>
+        <v>4000</v>
       </c>
       <c r="G3" t="n">
-        <v>24.59000000000001</v>
+        <v>24.55166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>25.9</v>
       </c>
       <c r="F4" t="n">
-        <v>196.427</v>
+        <v>1102.8429</v>
       </c>
       <c r="G4" t="n">
-        <v>24.62666666666668</v>
+        <v>24.59000000000001</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>25.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3877.2124</v>
+        <v>196.427</v>
       </c>
       <c r="G5" t="n">
-        <v>24.66333333333334</v>
+        <v>24.62666666666668</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>25.9</v>
       </c>
       <c r="F6" t="n">
-        <v>33764.3955</v>
+        <v>3877.2124</v>
       </c>
       <c r="G6" t="n">
-        <v>24.70000000000001</v>
+        <v>24.66333333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E7" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F7" t="n">
-        <v>27425.4494</v>
+        <v>33764.3955</v>
       </c>
       <c r="G7" t="n">
-        <v>24.73666666666668</v>
+        <v>24.70000000000001</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E8" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>27425.4494</v>
       </c>
       <c r="G8" t="n">
-        <v>24.77000000000001</v>
+        <v>24.73666666666668</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E9" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>24.81166666666668</v>
+        <v>24.77000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>24.84833333333335</v>
+        <v>24.81166666666668</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="D11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="E11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="F11" t="n">
-        <v>33764.3955</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>24.87833333333334</v>
+        <v>24.84833333333335</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F12" t="n">
-        <v>12665.9323</v>
+        <v>33764.3955</v>
       </c>
       <c r="G12" t="n">
-        <v>24.91333333333334</v>
+        <v>24.87833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E13" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>12665.9323</v>
       </c>
       <c r="G13" t="n">
-        <v>24.94166666666668</v>
+        <v>24.91333333333334</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C14" t="n">
         <v>25.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D14" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E14" t="n">
         <v>25.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>25.4</v>
-      </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>24.96666666666668</v>
+        <v>24.94166666666668</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="C15" t="n">
         <v>25.4</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E15" t="n">
         <v>25.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1087.0166</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>24.99000000000001</v>
+        <v>24.96666666666668</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>25.4</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D16" t="n">
         <v>25.4</v>
       </c>
       <c r="E16" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F16" t="n">
-        <v>12665.9323</v>
+        <v>1087.0166</v>
       </c>
       <c r="G16" t="n">
-        <v>25.01166666666668</v>
+        <v>24.99000000000001</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>25.4</v>
       </c>
       <c r="C17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D17" t="n">
         <v>25.4</v>
       </c>
       <c r="E17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>12665.9323</v>
       </c>
       <c r="G17" t="n">
-        <v>25.03166666666668</v>
+        <v>25.01166666666668</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="E18" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="F18" t="n">
-        <v>49800</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="n">
-        <v>25.04500000000001</v>
+        <v>25.03166666666668</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>25.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2018.4217</v>
+        <v>49800</v>
       </c>
       <c r="G19" t="n">
-        <v>25.05666666666668</v>
+        <v>25.04500000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>25.3</v>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>2018.4217</v>
       </c>
       <c r="G20" t="n">
-        <v>25.06833333333335</v>
+        <v>25.05666666666668</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E21" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>25.08000000000002</v>
+        <v>25.06833333333335</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>25.2</v>
       </c>
       <c r="F22" t="n">
-        <v>803.0874</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="n">
-        <v>25.09000000000002</v>
+        <v>25.08000000000002</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="D23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="E23" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="F23" t="n">
-        <v>62887.0232</v>
+        <v>803.0874</v>
       </c>
       <c r="G23" t="n">
-        <v>25.11166666666668</v>
+        <v>25.09000000000002</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>25.5</v>
       </c>
       <c r="F24" t="n">
-        <v>7962.5288</v>
+        <v>62887.0232</v>
       </c>
       <c r="G24" t="n">
-        <v>25.13666666666668</v>
+        <v>25.11166666666668</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E25" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F25" t="n">
-        <v>23379.0523</v>
+        <v>7962.5288</v>
       </c>
       <c r="G25" t="n">
-        <v>25.16333333333335</v>
+        <v>25.13666666666668</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="C26" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D26" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="E26" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F26" t="n">
-        <v>62887.0232</v>
+        <v>23379.0523</v>
       </c>
       <c r="G26" t="n">
-        <v>25.18333333333335</v>
+        <v>25.16333333333335</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C27" t="n">
         <v>25.2</v>
       </c>
       <c r="D27" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E27" t="n">
         <v>25.2</v>
       </c>
       <c r="F27" t="n">
-        <v>92.4926</v>
+        <v>62887.0232</v>
       </c>
       <c r="G27" t="n">
-        <v>25.19833333333335</v>
+        <v>25.18333333333335</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F28" t="n">
-        <v>212.7</v>
+        <v>92.4926</v>
       </c>
       <c r="G28" t="n">
-        <v>25.21833333333335</v>
+        <v>25.19833333333335</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F29" t="n">
-        <v>606.1598</v>
+        <v>212.7</v>
       </c>
       <c r="G29" t="n">
-        <v>25.23666666666669</v>
+        <v>25.21833333333335</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="C30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E30" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F30" t="n">
-        <v>8103.5106</v>
+        <v>606.1598</v>
       </c>
       <c r="G30" t="n">
-        <v>25.26166666666669</v>
+        <v>25.23666666666669</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>25.5</v>
       </c>
       <c r="F31" t="n">
-        <v>803.1153</v>
+        <v>8103.5106</v>
       </c>
       <c r="G31" t="n">
-        <v>25.28333333333335</v>
+        <v>25.26166666666669</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="C32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="D32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="E32" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="F32" t="n">
-        <v>45104.8687</v>
+        <v>803.1153</v>
       </c>
       <c r="G32" t="n">
-        <v>25.29833333333335</v>
+        <v>25.28333333333335</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="C33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="D33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="E33" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="F33" t="n">
-        <v>49800</v>
+        <v>45104.8687</v>
       </c>
       <c r="G33" t="n">
-        <v>25.31666666666668</v>
+        <v>25.29833333333335</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>25.5</v>
       </c>
       <c r="C34" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="D34" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="E34" t="n">
         <v>25.5</v>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>49800</v>
       </c>
       <c r="G34" t="n">
-        <v>25.34000000000001</v>
+        <v>25.31666666666668</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C35" t="n">
         <v>25.6</v>
@@ -1275,15 +1379,18 @@
         <v>25.6</v>
       </c>
       <c r="E35" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F35" t="n">
-        <v>105272.3993</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>25.36000000000001</v>
+        <v>25.34000000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E36" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F36" t="n">
-        <v>1272.8311</v>
+        <v>105272.3993</v>
       </c>
       <c r="G36" t="n">
-        <v>25.38333333333334</v>
+        <v>25.36000000000001</v>
       </c>
       <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>25.8</v>
       </c>
       <c r="F37" t="n">
-        <v>29901.5782</v>
+        <v>1272.8311</v>
       </c>
       <c r="G37" t="n">
-        <v>25.40666666666667</v>
+        <v>25.38333333333334</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>25.8</v>
       </c>
       <c r="F38" t="n">
-        <v>52062.0412</v>
+        <v>29901.5782</v>
       </c>
       <c r="G38" t="n">
-        <v>25.42166666666667</v>
+        <v>25.40666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E39" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F39" t="n">
-        <v>1272.8311</v>
+        <v>52062.0412</v>
       </c>
       <c r="G39" t="n">
-        <v>25.43166666666667</v>
+        <v>25.42166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>25.6</v>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>1272.8311</v>
       </c>
       <c r="G40" t="n">
-        <v>25.44333333333333</v>
+        <v>25.43166666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E41" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1247.8126</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>25.45833333333333</v>
+        <v>25.44333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>25.8</v>
       </c>
       <c r="C42" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D42" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E42" t="n">
         <v>25.8</v>
       </c>
       <c r="F42" t="n">
-        <v>67696.514</v>
+        <v>1247.8126</v>
       </c>
       <c r="G42" t="n">
-        <v>25.48333333333333</v>
+        <v>25.45833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C43" t="n">
         <v>26.2</v>
@@ -1483,15 +1611,18 @@
         <v>26.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F43" t="n">
-        <v>312.0949</v>
+        <v>67696.514</v>
       </c>
       <c r="G43" t="n">
-        <v>25.51</v>
+        <v>25.48333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>26.2</v>
       </c>
       <c r="F44" t="n">
-        <v>88696.405</v>
+        <v>312.0949</v>
       </c>
       <c r="G44" t="n">
-        <v>25.53</v>
+        <v>25.51</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F45" t="n">
-        <v>18800</v>
+        <v>88696.405</v>
       </c>
       <c r="G45" t="n">
-        <v>25.55166666666667</v>
+        <v>25.53</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F46" t="n">
-        <v>45.7564</v>
+        <v>18800</v>
       </c>
       <c r="G46" t="n">
-        <v>25.57333333333333</v>
+        <v>25.55166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>26.4</v>
       </c>
       <c r="F47" t="n">
-        <v>15491.574</v>
+        <v>45.7564</v>
       </c>
       <c r="G47" t="n">
-        <v>25.59333333333334</v>
+        <v>25.57333333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>26.4</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D48" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F48" t="n">
-        <v>144887.4058</v>
+        <v>15491.574</v>
       </c>
       <c r="G48" t="n">
-        <v>25.61333333333334</v>
+        <v>25.59333333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C49" t="n">
         <v>26.2</v>
       </c>
-      <c r="C49" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E49" t="n">
         <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>15612.1884</v>
+        <v>144887.4058</v>
       </c>
       <c r="G49" t="n">
-        <v>25.63333333333334</v>
+        <v>25.61333333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C50" t="n">
         <v>26.4</v>
@@ -1665,15 +1814,18 @@
         <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F50" t="n">
-        <v>60893.0661</v>
+        <v>15612.1884</v>
       </c>
       <c r="G50" t="n">
-        <v>25.65166666666667</v>
+        <v>25.63333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>26.4</v>
       </c>
       <c r="F51" t="n">
-        <v>4844.5439</v>
+        <v>60893.0661</v>
       </c>
       <c r="G51" t="n">
-        <v>25.67333333333334</v>
+        <v>25.65166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>26.4</v>
       </c>
       <c r="F52" t="n">
-        <v>3182.5989</v>
+        <v>4844.5439</v>
       </c>
       <c r="G52" t="n">
-        <v>25.69500000000001</v>
+        <v>25.67333333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C53" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="D53" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E53" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="F53" t="n">
-        <v>140822.6085</v>
+        <v>3182.5989</v>
       </c>
       <c r="G53" t="n">
-        <v>25.70833333333335</v>
+        <v>25.69500000000001</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>26.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D54" t="n">
         <v>26.3</v>
       </c>
       <c r="E54" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F54" t="n">
-        <v>1374.7464</v>
+        <v>140822.6085</v>
       </c>
       <c r="G54" t="n">
-        <v>25.72500000000002</v>
+        <v>25.70833333333335</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E55" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F55" t="n">
-        <v>44.938</v>
+        <v>1374.7464</v>
       </c>
       <c r="G55" t="n">
-        <v>25.74166666666668</v>
+        <v>25.72500000000002</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>26.4</v>
       </c>
       <c r="C56" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D56" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E56" t="n">
         <v>26.4</v>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>44.938</v>
       </c>
       <c r="G56" t="n">
-        <v>25.76000000000001</v>
+        <v>25.74166666666668</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.5</v>
@@ -1847,15 +2017,18 @@
         <v>26.5</v>
       </c>
       <c r="E57" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F57" t="n">
-        <v>6940.395</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="n">
-        <v>25.77666666666668</v>
+        <v>25.76000000000001</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>26.5</v>
       </c>
       <c r="F58" t="n">
-        <v>695.4748</v>
+        <v>6940.395</v>
       </c>
       <c r="G58" t="n">
-        <v>25.79166666666668</v>
+        <v>25.77666666666668</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>26.5</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>695.4748</v>
       </c>
       <c r="G59" t="n">
-        <v>25.80333333333335</v>
+        <v>25.79166666666668</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E60" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="F60" t="n">
-        <v>3090.6944</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>25.81000000000001</v>
+        <v>25.80333333333335</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="D61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="E61" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F61" t="n">
-        <v>54564.3521</v>
+        <v>3090.6944</v>
       </c>
       <c r="G61" t="n">
-        <v>25.82000000000001</v>
+        <v>25.81000000000001</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>26.5</v>
       </c>
       <c r="F62" t="n">
-        <v>84588.0019</v>
+        <v>54564.3521</v>
       </c>
       <c r="G62" t="n">
-        <v>25.83000000000001</v>
+        <v>25.82000000000001</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="D63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="E63" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F63" t="n">
-        <v>45909.96454285715</v>
+        <v>84588.0019</v>
       </c>
       <c r="G63" t="n">
-        <v>25.84166666666668</v>
+        <v>25.83000000000001</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,18 +2217,21 @@
         <v>26.6</v>
       </c>
       <c r="D64" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="E64" t="n">
         <v>26.6</v>
       </c>
       <c r="F64" t="n">
-        <v>182592.9552348315</v>
+        <v>45909.96454285715</v>
       </c>
       <c r="G64" t="n">
-        <v>25.85333333333334</v>
+        <v>25.84166666666668</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,10 +2240,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="C65" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D65" t="n">
         <v>26.7</v>
@@ -2058,12 +2252,15 @@
         <v>26.6</v>
       </c>
       <c r="F65" t="n">
-        <v>95669.00716516854</v>
+        <v>182592.9552348315</v>
       </c>
       <c r="G65" t="n">
-        <v>25.86666666666667</v>
+        <v>25.85333333333334</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D66" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="E66" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="F66" t="n">
-        <v>10129.8701</v>
+        <v>95669.00716516854</v>
       </c>
       <c r="G66" t="n">
-        <v>25.88166666666667</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C67" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D67" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E67" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F67" t="n">
-        <v>68360.66710000001</v>
+        <v>10129.8701</v>
       </c>
       <c r="G67" t="n">
-        <v>25.9</v>
+        <v>25.88166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D68" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="E68" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="F68" t="n">
-        <v>22022.6135</v>
+        <v>68360.66710000001</v>
       </c>
       <c r="G68" t="n">
-        <v>25.91833333333334</v>
+        <v>25.9</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="C69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="E69" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="F69" t="n">
-        <v>40000</v>
+        <v>22022.6135</v>
       </c>
       <c r="G69" t="n">
-        <v>25.935</v>
+        <v>25.91833333333334</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>26.9</v>
       </c>
       <c r="F70" t="n">
-        <v>48090.4541</v>
+        <v>40000</v>
       </c>
       <c r="G70" t="n">
-        <v>25.955</v>
+        <v>25.935</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>26.9</v>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E71" t="n">
         <v>26.9</v>
       </c>
       <c r="F71" t="n">
-        <v>176186.1855</v>
+        <v>48090.4541</v>
       </c>
       <c r="G71" t="n">
-        <v>25.98</v>
+        <v>25.955</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E72" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="F72" t="n">
-        <v>86177.1131</v>
+        <v>176186.1855</v>
       </c>
       <c r="G72" t="n">
-        <v>26.005</v>
+        <v>25.98</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D73" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E73" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F73" t="n">
-        <v>169623.9086058394</v>
+        <v>86177.1131</v>
       </c>
       <c r="G73" t="n">
-        <v>26.03833333333334</v>
+        <v>26.005</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C74" t="n">
         <v>27.5</v>
       </c>
-      <c r="C74" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D74" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E74" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F74" t="n">
-        <v>58886.8515</v>
+        <v>169623.9086058394</v>
       </c>
       <c r="G74" t="n">
-        <v>26.075</v>
+        <v>26.03833333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C75" t="n">
         <v>27.6</v>
@@ -2315,15 +2539,18 @@
         <v>27.6</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F75" t="n">
-        <v>39330.8242</v>
+        <v>58886.8515</v>
       </c>
       <c r="G75" t="n">
-        <v>26.11166666666666</v>
+        <v>26.075</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>27.6</v>
       </c>
       <c r="C76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
         <v>27.6</v>
       </c>
       <c r="E76" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>27344.3093</v>
+        <v>39330.8242</v>
       </c>
       <c r="G76" t="n">
-        <v>26.14666666666666</v>
+        <v>26.11166666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C77" t="n">
         <v>27.4</v>
       </c>
-      <c r="C77" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D77" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E77" t="n">
         <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>66841.0012</v>
+        <v>27344.3093</v>
       </c>
       <c r="G77" t="n">
-        <v>26.18166666666666</v>
+        <v>26.14666666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C78" t="n">
         <v>27.5</v>
       </c>
-      <c r="C78" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>198171.8585</v>
+        <v>66841.0012</v>
       </c>
       <c r="G78" t="n">
-        <v>26.22333333333333</v>
+        <v>26.18166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C79" t="n">
         <v>27.8</v>
       </c>
-      <c r="C79" t="n">
-        <v>28.1</v>
-      </c>
       <c r="D79" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F79" t="n">
-        <v>104022.6504</v>
+        <v>198171.8585</v>
       </c>
       <c r="G79" t="n">
-        <v>26.27</v>
+        <v>26.22333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,25 +2675,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C80" t="n">
         <v>28.1</v>
       </c>
-      <c r="C80" t="n">
-        <v>28</v>
-      </c>
       <c r="D80" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E80" t="n">
         <v>27.7</v>
       </c>
       <c r="F80" t="n">
-        <v>209221.5673</v>
+        <v>104022.6504</v>
       </c>
       <c r="G80" t="n">
-        <v>26.315</v>
+        <v>26.27</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2704,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C81" t="n">
         <v>28</v>
       </c>
       <c r="D81" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E81" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F81" t="n">
-        <v>493243.7988</v>
+        <v>209221.5673</v>
       </c>
       <c r="G81" t="n">
-        <v>26.36166666666666</v>
+        <v>26.315</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2491,22 +2736,25 @@
         <v>28</v>
       </c>
       <c r="C82" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>28</v>
       </c>
       <c r="E82" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>192148.3723</v>
+        <v>493243.7988</v>
       </c>
       <c r="G82" t="n">
-        <v>26.40333333333333</v>
+        <v>26.36166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2514,25 +2762,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>28</v>
+      </c>
+      <c r="C83" t="n">
         <v>27.7</v>
       </c>
-      <c r="C83" t="n">
-        <v>27.3</v>
-      </c>
       <c r="D83" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F83" t="n">
-        <v>105027.5005</v>
+        <v>192148.3723</v>
       </c>
       <c r="G83" t="n">
-        <v>26.43333333333333</v>
+        <v>26.40333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C84" t="n">
         <v>27.3</v>
       </c>
-      <c r="C84" t="n">
-        <v>27.5</v>
-      </c>
       <c r="D84" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E84" t="n">
         <v>27.3</v>
       </c>
       <c r="F84" t="n">
-        <v>166468.7267</v>
+        <v>105027.5005</v>
       </c>
       <c r="G84" t="n">
-        <v>26.46666666666666</v>
+        <v>26.43333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C85" t="n">
         <v>27.5</v>
       </c>
       <c r="D85" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E85" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F85" t="n">
-        <v>9236.759099999999</v>
+        <v>166468.7267</v>
       </c>
       <c r="G85" t="n">
-        <v>26.49833333333333</v>
+        <v>26.46666666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,10 +2849,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C86" t="n">
         <v>27.5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>27.6</v>
       </c>
       <c r="D86" t="n">
         <v>27.6</v>
@@ -2604,12 +2861,15 @@
         <v>27.5</v>
       </c>
       <c r="F86" t="n">
-        <v>37938.2087</v>
+        <v>9236.759099999999</v>
       </c>
       <c r="G86" t="n">
-        <v>26.53833333333333</v>
+        <v>26.49833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C87" t="n">
         <v>27.6</v>
       </c>
       <c r="D87" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E87" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F87" t="n">
-        <v>87021.2583</v>
+        <v>37938.2087</v>
       </c>
       <c r="G87" t="n">
-        <v>26.57833333333333</v>
+        <v>26.53833333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D88" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E88" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F88" t="n">
-        <v>4211.3366</v>
+        <v>87021.2583</v>
       </c>
       <c r="G88" t="n">
-        <v>26.61499999999999</v>
+        <v>26.57833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>27.5</v>
       </c>
       <c r="C89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D89" t="n">
         <v>27.5</v>
       </c>
       <c r="E89" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F89" t="n">
-        <v>29193.9967</v>
+        <v>4211.3366</v>
       </c>
       <c r="G89" t="n">
-        <v>26.63999999999999</v>
+        <v>26.61499999999999</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C90" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="D90" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E90" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="F90" t="n">
-        <v>13655.0632</v>
+        <v>29193.9967</v>
       </c>
       <c r="G90" t="n">
-        <v>26.665</v>
+        <v>26.63999999999999</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C91" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E91" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F91" t="n">
-        <v>110968.1933</v>
+        <v>13655.0632</v>
       </c>
       <c r="G91" t="n">
-        <v>26.70166666666666</v>
+        <v>26.665</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C92" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D92" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E92" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F92" t="n">
-        <v>21203.8696</v>
+        <v>110968.1933</v>
       </c>
       <c r="G92" t="n">
-        <v>26.73833333333333</v>
+        <v>26.70166666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,10 +3052,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C93" t="n">
         <v>27.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>27.4</v>
       </c>
       <c r="D93" t="n">
         <v>27.5</v>
@@ -2786,12 +3064,15 @@
         <v>27.3</v>
       </c>
       <c r="F93" t="n">
-        <v>38224.9275</v>
+        <v>21203.8696</v>
       </c>
       <c r="G93" t="n">
-        <v>26.77</v>
+        <v>26.73833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C94" t="n">
         <v>27.4</v>
-      </c>
-      <c r="C94" t="n">
-        <v>27.3</v>
       </c>
       <c r="D94" t="n">
         <v>27.5</v>
       </c>
       <c r="E94" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>26425.4738</v>
+        <v>38224.9275</v>
       </c>
       <c r="G94" t="n">
-        <v>26.79833333333333</v>
+        <v>26.77</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C95" t="n">
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="D95" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E95" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="F95" t="n">
-        <v>411811.9223</v>
+        <v>26425.4738</v>
       </c>
       <c r="G95" t="n">
-        <v>26.81833333333333</v>
+        <v>26.79833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C96" t="n">
         <v>26.8</v>
       </c>
-      <c r="C96" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="E96" t="n">
         <v>26.8</v>
       </c>
       <c r="F96" t="n">
-        <v>23326.5074</v>
+        <v>411811.9223</v>
       </c>
       <c r="G96" t="n">
-        <v>26.83666666666667</v>
+        <v>26.81833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="C97" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E97" t="n">
         <v>26.8</v>
       </c>
       <c r="F97" t="n">
-        <v>40.6214</v>
+        <v>23326.5074</v>
       </c>
       <c r="G97" t="n">
-        <v>26.85333333333334</v>
+        <v>26.83666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>27</v>
+      </c>
+      <c r="C98" t="n">
         <v>26.8</v>
       </c>
-      <c r="C98" t="n">
-        <v>26.7</v>
-      </c>
       <c r="D98" t="n">
+        <v>27</v>
+      </c>
+      <c r="E98" t="n">
         <v>26.8</v>
       </c>
-      <c r="E98" t="n">
-        <v>26.7</v>
-      </c>
       <c r="F98" t="n">
-        <v>167729.1756</v>
+        <v>40.6214</v>
       </c>
       <c r="G98" t="n">
-        <v>26.86833333333334</v>
+        <v>26.85333333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="C99" t="n">
         <v>26.7</v>
       </c>
       <c r="D99" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E99" t="n">
         <v>26.7</v>
       </c>
       <c r="F99" t="n">
-        <v>68508.31623483147</v>
+        <v>167729.1756</v>
       </c>
       <c r="G99" t="n">
-        <v>26.88666666666667</v>
+        <v>26.86833333333334</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E100" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F100" t="n">
-        <v>158182.946</v>
+        <v>68508.31623483147</v>
       </c>
       <c r="G100" t="n">
-        <v>26.90166666666667</v>
+        <v>26.88666666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>26.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2046.1067</v>
+        <v>158182.946</v>
       </c>
       <c r="G101" t="n">
-        <v>26.91333333333334</v>
+        <v>26.90166666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D102" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E102" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F102" t="n">
-        <v>208494.5103</v>
+        <v>2046.1067</v>
       </c>
       <c r="G102" t="n">
         <v>26.91333333333334</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C103" t="n">
         <v>26.2</v>
       </c>
-      <c r="C103" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D103" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E103" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F103" t="n">
-        <v>263070.7756</v>
+        <v>208494.5103</v>
       </c>
       <c r="G103" t="n">
-        <v>26.90833333333334</v>
+        <v>26.91333333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,544 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C104" t="n">
         <v>25.9</v>
       </c>
-      <c r="C104" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D104" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E104" t="n">
         <v>25.9</v>
       </c>
-      <c r="E104" t="n">
-        <v>25.8</v>
-      </c>
       <c r="F104" t="n">
-        <v>221620.8026</v>
+        <v>263070.7756</v>
       </c>
       <c r="G104" t="n">
-        <v>26.90166666666667</v>
+        <v>26.90833333333334</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E105" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>74672.425</v>
-      </c>
-      <c r="G105" t="n">
-        <v>26.89500000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E106" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>75154.0756</v>
-      </c>
-      <c r="G106" t="n">
-        <v>26.88666666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>26</v>
-      </c>
-      <c r="D107" t="n">
-        <v>26</v>
-      </c>
-      <c r="E107" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>196376.6532</v>
-      </c>
-      <c r="G107" t="n">
-        <v>26.88000000000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>26</v>
-      </c>
-      <c r="C108" t="n">
-        <v>26</v>
-      </c>
-      <c r="D108" t="n">
-        <v>26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>104700.243</v>
-      </c>
-      <c r="G108" t="n">
-        <v>26.87666666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>26</v>
-      </c>
-      <c r="C109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26</v>
-      </c>
-      <c r="F109" t="n">
-        <v>320430.7782</v>
-      </c>
-      <c r="G109" t="n">
-        <v>26.87333333333334</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E110" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>555429.3594</v>
-      </c>
-      <c r="G110" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>87078.05869999999</v>
-      </c>
-      <c r="G111" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>99457.40360000001</v>
-      </c>
-      <c r="G112" t="n">
-        <v>26.855</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>85394.4172</v>
-      </c>
-      <c r="G113" t="n">
-        <v>26.855</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F114" t="n">
-        <v>211.0587</v>
-      </c>
-      <c r="G114" t="n">
-        <v>26.84833333333334</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>60.5211</v>
-      </c>
-      <c r="G115" t="n">
-        <v>26.84</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2119.6881</v>
-      </c>
-      <c r="G116" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E117" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>59403.5178</v>
-      </c>
-      <c r="G117" t="n">
-        <v>26.81666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>125.6542</v>
-      </c>
-      <c r="G118" t="n">
-        <v>26.80333333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>76875.73639999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>26.79166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>94118.594</v>
-      </c>
-      <c r="G120" t="n">
-        <v>26.78500000000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>36.9157</v>
-      </c>
-      <c r="G121" t="n">
-        <v>26.77500000000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2052.0689</v>
-      </c>
-      <c r="G122" t="n">
-        <v>26.76500000000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3583.942</v>
-      </c>
-      <c r="G123" t="n">
-        <v>26.75333333333334</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>26</v>
-      </c>
-      <c r="D124" t="n">
-        <v>26</v>
-      </c>
-      <c r="E124" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>47239.3019</v>
-      </c>
-      <c r="G124" t="n">
-        <v>26.74333333333335</v>
-      </c>
-      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
